--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd86-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd86-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,60 +522,60 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.516883333333334</v>
+        <v>0.02345233333333334</v>
       </c>
       <c r="H2">
-        <v>25.55065</v>
+        <v>0.070357</v>
       </c>
       <c r="I2">
-        <v>0.08473352333057485</v>
+        <v>0.0002537772683371841</v>
       </c>
       <c r="J2">
-        <v>0.08473352333057484</v>
+        <v>0.0002537772683371841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1791996666666666</v>
+        <v>5.273410666666667</v>
       </c>
       <c r="N2">
-        <v>0.5375989999999999</v>
+        <v>15.820232</v>
       </c>
       <c r="O2">
-        <v>0.04251079199666428</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.04251079199666428</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.526222654372222</v>
+        <v>0.1236737847582222</v>
       </c>
       <c r="R2">
-        <v>13.73600388935</v>
+        <v>1.113064062824</v>
       </c>
       <c r="S2">
-        <v>0.003602089185450568</v>
+        <v>0.0002537772683371841</v>
       </c>
       <c r="T2">
-        <v>0.003602089185450567</v>
+        <v>0.0002537772683371841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.516883333333334</v>
+        <v>92.38960533333334</v>
       </c>
       <c r="H3">
-        <v>25.55065</v>
+        <v>277.168816</v>
       </c>
       <c r="I3">
-        <v>0.08473352333057485</v>
+        <v>0.9997462227316628</v>
       </c>
       <c r="J3">
-        <v>0.08473352333057484</v>
+        <v>0.9997462227316628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,152 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.036192666666667</v>
+        <v>5.273410666666667</v>
       </c>
       <c r="N3">
-        <v>12.108578</v>
+        <v>15.820232</v>
       </c>
       <c r="O3">
-        <v>0.9574892080033358</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9574892080033357</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>34.37578205285556</v>
+        <v>487.2083302539236</v>
       </c>
       <c r="R3">
-        <v>309.3820384757</v>
+        <v>4384.874972285312</v>
       </c>
       <c r="S3">
-        <v>0.08113143414512429</v>
+        <v>0.9997462227316628</v>
       </c>
       <c r="T3">
-        <v>0.08113143414512426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>91.99685666666666</v>
-      </c>
-      <c r="H4">
-        <v>275.99057</v>
-      </c>
-      <c r="I4">
-        <v>0.9152664766694251</v>
-      </c>
-      <c r="J4">
-        <v>0.9152664766694251</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1791996666666666</v>
-      </c>
-      <c r="N4">
-        <v>0.5375989999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.04251079199666428</v>
-      </c>
-      <c r="P4">
-        <v>0.04251079199666428</v>
-      </c>
-      <c r="Q4">
-        <v>16.48580604904777</v>
-      </c>
-      <c r="R4">
-        <v>148.37225444143</v>
-      </c>
-      <c r="S4">
-        <v>0.03890870281121371</v>
-      </c>
-      <c r="T4">
-        <v>0.03890870281121371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>91.99685666666666</v>
-      </c>
-      <c r="H5">
-        <v>275.99057</v>
-      </c>
-      <c r="I5">
-        <v>0.9152664766694251</v>
-      </c>
-      <c r="J5">
-        <v>0.9152664766694251</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.036192666666667</v>
-      </c>
-      <c r="N5">
-        <v>12.108578</v>
-      </c>
-      <c r="O5">
-        <v>0.9574892080033358</v>
-      </c>
-      <c r="P5">
-        <v>0.9574892080033357</v>
-      </c>
-      <c r="Q5">
-        <v>371.3170382343844</v>
-      </c>
-      <c r="R5">
-        <v>3341.85334410946</v>
-      </c>
-      <c r="S5">
-        <v>0.8763577738582115</v>
-      </c>
-      <c r="T5">
-        <v>0.8763577738582113</v>
+        <v>0.9997462227316628</v>
       </c>
     </row>
   </sheetData>
